--- a/RISSafety/31185/res_46694R3 - ITPS.xlsx
+++ b/RISSafety/31185/res_46694R3 - ITPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\RISSafety\31185\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC93F27-92BF-4996-847E-BC903819DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937C4766-30EA-486A-82D9-B09EF8B1FCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="915" windowWidth="29040" windowHeight="19815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9810" yWindow="1230" windowWidth="29040" windowHeight="19785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -61,40 +74,130 @@
     <t>section</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 - </t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">CHARACTERISTICS - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STAGE/FREQUENCY - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECORDS - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUIREMENT/STANDARD/SPECIFICATION - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACCEPTANCE CRITERIA - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSPECTION/TEST PROCEDURE - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSPECTION: INSTALLER - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSPECTION: INSTALL SUPERVISOR - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSPECTION: CLIENT - </t>
+    <t>46694R3 - ITP</t>
+  </si>
+  <si>
+    <t>INSPECTION TEST PLAN AND CHECKLIST</t>
+  </si>
+  <si>
+    <t>Pre-Start/Installation</t>
+  </si>
+  <si>
+    <t>Plans and specifications have been reviewed and are current. Existing ITP checklists are suitable for project. Contract is signed.</t>
+  </si>
+  <si>
+    <t>SWMS and any other documents have been provided, reviewed and accepted by the client</t>
+  </si>
+  <si>
+    <t>Variations outlined and agreed, no changes or additions are required, job pack and ITP are included to project file.</t>
+  </si>
+  <si>
+    <t>Site inspected or reviewed, structural match confirmed with materials ordered, instation surface condition is undamaged and installation ready</t>
+  </si>
+  <si>
+    <t>I have carried out all necessary inspections and verify that the above items/activities conform to the contract specification/documents</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>Signature:</t>
+  </si>
+  <si>
+    <t>1 - Tender and Testing conformance</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS - Review specifications and performance standard requirements for project</t>
+  </si>
+  <si>
+    <t>STAGE/FREQUENCY - Pre-contract Signing</t>
+  </si>
+  <si>
+    <t>RECORDS - Checklist</t>
+  </si>
+  <si>
+    <t>REQUIREMENT/STANDARD/SPECIFICATION - Confirm product is tested and designed to required project performance, international or national standards detailed in specifications at time of tender.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Tested to specification requirements ITP Checklist is relevant to product required</t>
+  </si>
+  <si>
+    <t>INSTALL SUPERVISOR - H</t>
+  </si>
+  <si>
+    <t>2 - Preliminary activities (requiring Principal’s notification)</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS - Notification provided of any changes in design or structures that effect products to be used</t>
+  </si>
+  <si>
+    <t>STAGE/FREQUENCY - Before ordering products and Beginning Installation</t>
+  </si>
+  <si>
+    <t>REQUIREMENT/STANDARD/SPECIFICATION - Specification, drawings remain unchanged since tender was accepted and contract signed or new plans and specifications are issued and reviewed, changes are accepted by client</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Reviewed and changes do not alter quantities and types of products to be installed</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST PROCEDURE - Submit details of changes to client and agree to changes in scope or products to be used</t>
+  </si>
+  <si>
+    <t>CLIENT - S</t>
+  </si>
+  <si>
+    <t>3 - Preliminary activities (requiring Contractor’s acceptance)</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS - Approvals required obtained or safety documentation is supplied and induction requirements outlined</t>
+  </si>
+  <si>
+    <t>REQUIREMENT/STANDARD/SPECIFICATION - variations requested if required, SWMS sent for review and inductions organised.</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Change of design or quantities is agreed to and variations issued is SWMS and Induction accepted and conducted</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST PROCEDURE - Documents sent and acceptance confirmed with Client</t>
+  </si>
+  <si>
+    <t>CLIENT - W</t>
+  </si>
+  <si>
+    <t>CHARACTERISTICS - Progress of work and condition of the structure is confirmed, visual inspection where required is completed for compatibility and suitability</t>
+  </si>
+  <si>
+    <t>STAGE/FREQUENCY - Before installation</t>
+  </si>
+  <si>
+    <t>REQUIREMENT/STANDARD/SPECIFICATION - structures match and conditions on site are suitable for installation to begin</t>
+  </si>
+  <si>
+    <t>ACCEPTANCE CRITERIA - Structural and physical characteristics match</t>
+  </si>
+  <si>
+    <t>INSPECTION/TEST PROCEDURE - Job pack issued to Installer with relevant ITP Checklist included</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>4 - Pre installation site investigation/measur e up completed confirmed.</t>
   </si>
 </sst>
 </file>
@@ -237,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +540,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,13 +716,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -963,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1125,9 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1135,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1024,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,79 +1153,375 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
